--- a/charts.xlsx
+++ b/charts.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3990" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="1785">
   <si>
     <t>$category</t>
   </si>
@@ -5373,6 +5374,15 @@
   </si>
   <si>
     <t>'ll</t>
+  </si>
+  <si>
+    <t>Witten Bell</t>
+  </si>
+  <si>
+    <t>Kneser Ney</t>
+  </si>
+  <si>
+    <t>katz</t>
   </si>
 </sst>
 </file>
@@ -5408,9 +5418,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -30602,79 +30615,76 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$2:$A$25</c:f>
+              <c:f>Foglio1!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>O</c:v>
+                  <c:v>movie.name</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>movie.name</c:v>
+                  <c:v>director.name</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>director.name</c:v>
+                  <c:v>actor.name</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>actor.name</c:v>
+                  <c:v>producer.name</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>producer.name</c:v>
+                  <c:v>person.name</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>person.name</c:v>
+                  <c:v>movie.subject</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>movie.subject</c:v>
+                  <c:v>rating.name</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>rating.name</c:v>
+                  <c:v>country.name</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>country.name</c:v>
+                  <c:v>movie.language</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>movie.language</c:v>
+                  <c:v>movie.release_date</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>movie.release_date</c:v>
+                  <c:v>movie.genre</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>movie.genre</c:v>
+                  <c:v>character.name</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>character.name</c:v>
+                  <c:v>movie.gross_revenue</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>movie.gross_revenue</c:v>
+                  <c:v>movie.location</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>movie.location</c:v>
+                  <c:v>award.ceremony</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>award.ceremony</c:v>
+                  <c:v>movie.release_region</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>movie.release_region</c:v>
+                  <c:v>actor.nationality</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>actor.nationality</c:v>
+                  <c:v>actor.type</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>actor.type</c:v>
+                  <c:v>person.nationality</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>person.nationality</c:v>
+                  <c:v>movie.description</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>movie.description</c:v>
+                  <c:v>director.nationality</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>director.nationality</c:v>
+                  <c:v>movie.star_rating</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>movie.star_rating</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>award.category</c:v>
                 </c:pt>
               </c:strCache>
@@ -30682,66 +30692,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$B$25</c:f>
+              <c:f>Foglio1!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>15391.0</c:v>
+                  <c:v>3157.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3157.0</c:v>
+                  <c:v>455.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>455.0</c:v>
+                  <c:v>437.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>437.0</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>336.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>280.0</c:v>
+                  <c:v>247.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>212.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207.0</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>201.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2.0</c:v>
@@ -30750,12 +30760,9 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -33735,16 +33742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>6457</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>167468</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>647375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>48842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>488627</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>4736</xdr:rowOff>
+      <xdr:col>253</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34061,8 +34068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L50" zoomScale="84" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView zoomScale="82" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34905,6 +34912,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f>(B2+B3)/SUM(B2:B25)</f>
+        <v>0.86458770335151258</v>
+      </c>
       <c r="D28" t="s">
         <v>723</v>
       </c>
@@ -34931,6 +34942,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>B28*100</f>
+        <v>86.458770335151257</v>
+      </c>
       <c r="D29" t="s">
         <v>722</v>
       </c>
@@ -35034,7 +35049,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f>B2/SUM(B2:B25)</f>
+        <v>0.71742879783713231</v>
+      </c>
       <c r="D33" t="s">
         <v>718</v>
       </c>
@@ -35060,7 +35079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>717</v>
       </c>
@@ -35086,7 +35105,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>716</v>
       </c>
@@ -35112,7 +35131,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>715</v>
       </c>
@@ -35138,7 +35157,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>714</v>
       </c>
@@ -35164,7 +35183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>713</v>
       </c>
@@ -35190,7 +35209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>712</v>
       </c>
@@ -35216,7 +35235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>711</v>
       </c>
@@ -35242,7 +35261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>710</v>
       </c>
@@ -35268,7 +35287,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>709</v>
       </c>
@@ -35294,7 +35313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>708</v>
       </c>
@@ -35320,7 +35339,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>707</v>
       </c>
@@ -35346,7 +35365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>706</v>
       </c>
@@ -35372,7 +35391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>705</v>
       </c>
@@ -35398,7 +35417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>704</v>
       </c>
@@ -35424,7 +35443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>703</v>
       </c>
@@ -61670,4 +61689,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>57.43</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>76.37</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>76.27</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>75.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>75.58</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>75.67</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>76.22</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>76.19</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>76.16</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>63.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/charts.xlsx
+++ b/charts.xlsx
@@ -30933,6 +30933,596 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Witten Bell</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$A$5:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kneser Ney</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Katz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-432326448"/>
+        <c:axId val="-432947616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-432326448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-432947616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-432947616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>F1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-432326448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -31094,6 +31684,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -33648,6 +34278,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -33795,6 +34941,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -61695,8 +62876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61725,8 +62906,14 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>57.17</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>57.13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -61816,5 +63003,6 @@
     <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>